--- a/docs/testCases/firstSprint/2.TestCase-Home-Header.xlsx
+++ b/docs/testCases/firstSprint/2.TestCase-Home-Header.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_Project\docs\testCases\firstSprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam PayApi Project\docs\testCases\firstSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E280E807-A05E-483C-9590-23EF1A812AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4A8C9-1FC3-4FC7-A8F8-B45CB2D50E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18975" yWindow="0" windowWidth="19530" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45615" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>Design should meet requirements listed in Figma "Design System" part.</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>On mobile version phone picture is not centered and dimension are wayy too big. Space between image and header too large. Font weight of header is too big. No spacing between header and input form(shoud be about 24px).  No spacing between button and bottom text(should be 24px). Spacing to home partners section should be about 100px. TABLET: phone picture is not centered and dimension are wayy too big. Header font weight too big. No spacing between header and input form(shoud be about 22px). Input form too narrow, input text is incorrect and bad font. No spacing between button and bottom text(should be 16px). Spacing to home partners section should be about 100px. DESKTOP:phone picture dimension are wayy too big. Header font weight too big. Bad spacing between header and input form(shoud be about 21px). Input form too long, input text is incorrect and bad font. No spacing between button and bottom text(should be 16px). Spacing to home partners section should be about 100px from form and 50px from phone picture.</t>
+  </si>
+  <si>
+    <t>Bad input text font and color on all devices.</t>
   </si>
 </sst>
 </file>
@@ -309,13 +324,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -323,38 +336,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -369,16 +352,48 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,23 +678,23 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
@@ -690,25 +705,25 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -724,10 +739,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -752,23 +767,23 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="17" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -787,28 +802,28 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="15"/>
@@ -817,7 +832,7 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -827,7 +842,7 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="15"/>
@@ -836,7 +851,7 @@
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -846,7 +861,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="15"/>
@@ -855,7 +870,7 @@
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -865,7 +880,7 @@
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="15"/>
@@ -874,7 +889,7 @@
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -884,7 +899,7 @@
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="15"/>
@@ -893,7 +908,7 @@
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -903,7 +918,7 @@
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
@@ -912,7 +927,7 @@
       <c r="F14" s="9">
         <v>5</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -949,76 +964,84 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="28" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="28" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="27"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="27"/>
+      <c r="I20" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="305.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="27"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="27"/>
+      <c r="I21" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
     </row>
@@ -1026,18 +1049,22 @@
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="27"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="27"/>
+      <c r="I22" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
     </row>
@@ -1045,18 +1072,22 @@
       <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="27"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="27"/>
+      <c r="I23" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="J23" s="15"/>
       <c r="K23" s="16"/>
     </row>
@@ -1064,14 +1095,14 @@
       <c r="A24" s="9">
         <v>5</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="27"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="27"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="15"/>
       <c r="K24" s="16"/>
     </row>
@@ -1079,62 +1110,19 @@
       <c r="A25" s="9">
         <v>6</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="27"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="27"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="15"/>
       <c r="K25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1149,6 +1137,49 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/testCases/firstSprint/2.TestCase-Home-Header.xlsx
+++ b/docs/testCases/firstSprint/2.TestCase-Home-Header.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam PayApi Project\docs\testCases\firstSprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\firstSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4A8C9-1FC3-4FC7-A8F8-B45CB2D50E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E21F814-FE84-40E0-91C2-FDDB9968CC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45615" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9045" yWindow="5250" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -324,20 +324,52 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -352,48 +384,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,24 +677,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
@@ -705,25 +705,25 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -739,10 +739,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -767,23 +767,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -802,28 +804,28 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="15"/>
@@ -832,7 +834,7 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -842,7 +844,7 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="15"/>
@@ -851,7 +853,7 @@
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -861,7 +863,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="15"/>
@@ -870,7 +872,7 @@
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -880,7 +882,7 @@
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="15"/>
@@ -889,7 +891,7 @@
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -899,7 +901,7 @@
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="15"/>
@@ -908,7 +910,7 @@
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -918,7 +920,7 @@
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
@@ -927,7 +929,7 @@
       <c r="F14" s="9">
         <v>5</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -964,59 +966,59 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="27" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="15"/>
@@ -1026,20 +1028,20 @@
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="27" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="27" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="15"/>
@@ -1049,20 +1051,20 @@
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="27" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="27" t="s">
         <v>37</v>
       </c>
       <c r="J22" s="15"/>
@@ -1072,20 +1074,20 @@
       <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="27" t="s">
         <v>36</v>
       </c>
       <c r="J23" s="15"/>
@@ -1095,14 +1097,14 @@
       <c r="A24" s="9">
         <v>5</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="14"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="15"/>
       <c r="K24" s="16"/>
     </row>
@@ -1110,19 +1112,62 @@
       <c r="A25" s="9">
         <v>6</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="15"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="14"/>
+      <c r="I25" s="27"/>
       <c r="J25" s="15"/>
       <c r="K25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1137,49 +1182,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/testCases/firstSprint/2.TestCase-Home-Header.xlsx
+++ b/docs/testCases/firstSprint/2.TestCase-Home-Header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\firstSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E21F814-FE84-40E0-91C2-FDDB9968CC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1448C552-5536-4FCB-938E-C946E6D03E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9045" yWindow="5250" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>This link should redirect me to main page</t>
   </si>
   <si>
-    <t>Go to the web pagelink: https://stranger-team-project-61ydf6mit-jkilius-projects.vercel.app/</t>
-  </si>
-  <si>
     <t>Observe design</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Bad input text font and color on all devices.</t>
+  </si>
+  <si>
+    <t>Go to the web pagelink: https://stranger-team-pay-api-project.vercel.app/</t>
   </si>
 </sst>
 </file>
@@ -324,13 +324,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -338,38 +336,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -384,16 +352,48 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,23 +678,23 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
@@ -705,25 +705,25 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -739,10 +739,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -767,25 +767,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="17" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -804,28 +804,28 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="15"/>
@@ -834,7 +834,7 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -844,7 +844,7 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="15"/>
@@ -853,7 +853,7 @@
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -863,7 +863,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="15"/>
@@ -872,7 +872,7 @@
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -882,7 +882,7 @@
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="15"/>
@@ -891,7 +891,7 @@
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -901,7 +901,7 @@
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="15"/>
@@ -910,7 +910,7 @@
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -920,8 +920,8 @@
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>29</v>
+      <c r="B14" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -929,7 +929,7 @@
       <c r="F14" s="9">
         <v>5</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -940,7 +940,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -966,60 +966,60 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="28" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="28" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34" t="s">
+      <c r="B20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="27" t="s">
-        <v>35</v>
+      <c r="E20" s="12"/>
+      <c r="F20" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="27" t="s">
-        <v>36</v>
+      <c r="I20" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
@@ -1028,21 +1028,21 @@
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="27" t="s">
-        <v>38</v>
+      <c r="B21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="27" t="s">
-        <v>37</v>
+      <c r="I21" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
@@ -1051,21 +1051,21 @@
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="27" t="s">
-        <v>39</v>
+      <c r="B22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="27" t="s">
-        <v>37</v>
+      <c r="I22" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
@@ -1074,21 +1074,21 @@
       <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="27" t="s">
-        <v>35</v>
+      <c r="E23" s="12"/>
+      <c r="F23" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="27" t="s">
-        <v>36</v>
+      <c r="I23" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="16"/>
@@ -1097,14 +1097,14 @@
       <c r="A24" s="9">
         <v>5</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="27"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="27"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="15"/>
       <c r="K24" s="16"/>
     </row>
@@ -1112,62 +1112,19 @@
       <c r="A25" s="9">
         <v>6</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="27"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="27"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="15"/>
       <c r="K25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1182,6 +1139,49 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
